--- a/contratos/contratos-10-2017.xlsx
+++ b/contratos/contratos-10-2017.xlsx
@@ -1030,7 +1030,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>IANUS S.A.</t>
@@ -1189,7 +1189,7 @@
     <t>PINO ADRIAN MATIAS</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROMERO ELIO RAFAEL</t>
@@ -1240,7 +1240,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1816,700 +1816,700 @@
     <t>33</t>
   </si>
   <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>11.836,00</t>
-  </si>
-  <si>
-    <t>8.740,00</t>
-  </si>
-  <si>
-    <t>930,00</t>
-  </si>
-  <si>
-    <t>6.100,00</t>
-  </si>
-  <si>
-    <t>42.195,00</t>
-  </si>
-  <si>
-    <t>149.790,00</t>
-  </si>
-  <si>
-    <t>11.450,00</t>
-  </si>
-  <si>
-    <t>212.270,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>418.000,00</t>
-  </si>
-  <si>
-    <t>12.293,60</t>
-  </si>
-  <si>
-    <t>1.820,00</t>
-  </si>
-  <si>
-    <t>3.540,00</t>
-  </si>
-  <si>
-    <t>1.695,00</t>
-  </si>
-  <si>
-    <t>11.820,00</t>
-  </si>
-  <si>
-    <t>1.170,00</t>
-  </si>
-  <si>
-    <t>7.988,76</t>
-  </si>
-  <si>
-    <t>331.800,00</t>
-  </si>
-  <si>
-    <t>532.946,30</t>
-  </si>
-  <si>
-    <t>79.412,00</t>
-  </si>
-  <si>
-    <t>259.359,57</t>
-  </si>
-  <si>
-    <t>19.535,92</t>
-  </si>
-  <si>
-    <t>64.418,00</t>
-  </si>
-  <si>
-    <t>3.019,00</t>
-  </si>
-  <si>
-    <t>31.920,00</t>
-  </si>
-  <si>
-    <t>88.008,83</t>
-  </si>
-  <si>
-    <t>399,00</t>
-  </si>
-  <si>
-    <t>30.981,39</t>
-  </si>
-  <si>
-    <t>35.561,54</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>51,10</t>
-  </si>
-  <si>
-    <t>35,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>985,70</t>
-  </si>
-  <si>
-    <t>37.782,27</t>
-  </si>
-  <si>
-    <t>3.892,00</t>
-  </si>
-  <si>
-    <t>102,35</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>4.320,00</t>
-  </si>
-  <si>
-    <t>1.490,16</t>
-  </si>
-  <si>
-    <t>279.000,00</t>
-  </si>
-  <si>
-    <t>1.003,60</t>
-  </si>
-  <si>
-    <t>17.775,56</t>
-  </si>
-  <si>
-    <t>37.900,00</t>
-  </si>
-  <si>
-    <t>31.419,03</t>
-  </si>
-  <si>
-    <t>996,00</t>
-  </si>
-  <si>
-    <t>446,20</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>9.437,15</t>
-  </si>
-  <si>
-    <t>13.782,28</t>
-  </si>
-  <si>
-    <t>6.596,00</t>
-  </si>
-  <si>
-    <t>14.388,68</t>
-  </si>
-  <si>
-    <t>3.522,62</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>6.497,20</t>
-  </si>
-  <si>
-    <t>47.003,40</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>23.288,68</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>1.219,00</t>
-  </si>
-  <si>
-    <t>5.180,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>6.395,23</t>
-  </si>
-  <si>
-    <t>4.267,50</t>
-  </si>
-  <si>
-    <t>5.639,50</t>
-  </si>
-  <si>
-    <t>2.244,60</t>
-  </si>
-  <si>
-    <t>26.220,56</t>
-  </si>
-  <si>
-    <t>89.400,00</t>
-  </si>
-  <si>
-    <t>82.175,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>24.800,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>1.964,82</t>
-  </si>
-  <si>
-    <t>23.268,65</t>
-  </si>
-  <si>
-    <t>599,50</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>171,78</t>
-  </si>
-  <si>
-    <t>22.200,00</t>
-  </si>
-  <si>
-    <t>1.652,00</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
-  </si>
-  <si>
-    <t>835,20</t>
-  </si>
-  <si>
-    <t>2.950,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>24.596,00</t>
-  </si>
-  <si>
-    <t>3.250,00</t>
-  </si>
-  <si>
-    <t>1.020,00</t>
-  </si>
-  <si>
-    <t>518,00</t>
-  </si>
-  <si>
-    <t>2.010,00</t>
-  </si>
-  <si>
-    <t>1.130,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>17.875,10</t>
-  </si>
-  <si>
-    <t>3.473,00</t>
-  </si>
-  <si>
-    <t>2.514,38</t>
-  </si>
-  <si>
-    <t>600.235,87</t>
-  </si>
-  <si>
-    <t>79.840,55</t>
-  </si>
-  <si>
-    <t>5,06</t>
-  </si>
-  <si>
-    <t>85,21</t>
-  </si>
-  <si>
-    <t>30.007,34</t>
-  </si>
-  <si>
-    <t>226,00</t>
-  </si>
-  <si>
-    <t>521,00</t>
-  </si>
-  <si>
-    <t>5.235,52</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>7.976,40</t>
-  </si>
-  <si>
-    <t>4.575,00</t>
-  </si>
-  <si>
-    <t>4.524,00</t>
-  </si>
-  <si>
-    <t>190,30</t>
-  </si>
-  <si>
-    <t>6.950,00</t>
-  </si>
-  <si>
-    <t>2.053,00</t>
-  </si>
-  <si>
-    <t>14.673,00</t>
-  </si>
-  <si>
-    <t>40,50</t>
-  </si>
-  <si>
-    <t>545,25</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>2.370,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>20.985,86</t>
-  </si>
-  <si>
-    <t>2.086,00</t>
-  </si>
-  <si>
-    <t>1.986,00</t>
-  </si>
-  <si>
-    <t>389,40</t>
-  </si>
-  <si>
-    <t>7.845,00</t>
-  </si>
-  <si>
-    <t>16.503,96</t>
-  </si>
-  <si>
-    <t>1.904,70</t>
-  </si>
-  <si>
-    <t>352,71</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>18.400,00</t>
-  </si>
-  <si>
-    <t>45.274,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>6.440,00</t>
-  </si>
-  <si>
-    <t>77.584,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>2.780,00</t>
-  </si>
-  <si>
-    <t>2.090,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>649,00</t>
-  </si>
-  <si>
-    <t>46.631,40</t>
-  </si>
-  <si>
-    <t>391,05</t>
-  </si>
-  <si>
-    <t>8.371,00</t>
-  </si>
-  <si>
-    <t>18.492,10</t>
-  </si>
-  <si>
-    <t>22.616,00</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>12.700,00</t>
-  </si>
-  <si>
-    <t>3.750,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>3.100,00</t>
-  </si>
-  <si>
-    <t>3.072,27</t>
-  </si>
-  <si>
-    <t>381,86</t>
-  </si>
-  <si>
-    <t>6.084,00</t>
-  </si>
-  <si>
-    <t>7.526,50</t>
-  </si>
-  <si>
-    <t>3.901,00</t>
-  </si>
-  <si>
-    <t>23.800,00</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>3.815,00</t>
-  </si>
-  <si>
-    <t>32.207,00</t>
-  </si>
-  <si>
-    <t>54.000,00</t>
-  </si>
-  <si>
-    <t>9.504,00</t>
-  </si>
-  <si>
-    <t>1.827,82</t>
-  </si>
-  <si>
-    <t>10.140,00</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>28.430,00</t>
-  </si>
-  <si>
-    <t>3.850,00</t>
-  </si>
-  <si>
-    <t>11.685,06</t>
-  </si>
-  <si>
-    <t>18.580,00</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>7.091,14</t>
-  </si>
-  <si>
-    <t>234,84</t>
-  </si>
-  <si>
-    <t>82.099,12</t>
-  </si>
-  <si>
-    <t>880,00</t>
-  </si>
-  <si>
-    <t>15.442,12</t>
-  </si>
-  <si>
-    <t>2.960,00</t>
-  </si>
-  <si>
-    <t>12.138,90</t>
-  </si>
-  <si>
-    <t>6.600,00</t>
-  </si>
-  <si>
-    <t>14.820,00</t>
-  </si>
-  <si>
-    <t>4.128,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>724.134,63</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>3.249.277,28</t>
-  </si>
-  <si>
-    <t>21.600,00</t>
-  </si>
-  <si>
-    <t>2.390,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>2.128.000,00</t>
-  </si>
-  <si>
-    <t>17.265.025,54</t>
-  </si>
-  <si>
-    <t>135.500,00</t>
-  </si>
-  <si>
-    <t>144.500,00</t>
-  </si>
-  <si>
-    <t>168.500,00</t>
-  </si>
-  <si>
-    <t>239.000,00</t>
-  </si>
-  <si>
-    <t>242.450,00</t>
-  </si>
-  <si>
-    <t>347.000,00</t>
-  </si>
-  <si>
-    <t>342.500,00</t>
-  </si>
-  <si>
-    <t>244.000,00</t>
-  </si>
-  <si>
-    <t>140.250,00</t>
-  </si>
-  <si>
-    <t>633.501,92</t>
-  </si>
-  <si>
-    <t>397.800,00</t>
-  </si>
-  <si>
-    <t>15.200,00</t>
-  </si>
-  <si>
-    <t>14.755.270,22</t>
-  </si>
-  <si>
-    <t>415.000,00</t>
-  </si>
-  <si>
-    <t>16.093.103,65</t>
-  </si>
-  <si>
-    <t>6.939,83</t>
-  </si>
-  <si>
-    <t>3.320,24</t>
-  </si>
-  <si>
-    <t>9.156,00</t>
-  </si>
-  <si>
-    <t>23.870,00</t>
-  </si>
-  <si>
-    <t>15.300,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>44.400,00</t>
-  </si>
-  <si>
-    <t>12.980,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>47.301,00</t>
-  </si>
-  <si>
-    <t>6.362,00</t>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>11836.00</t>
+  </si>
+  <si>
+    <t>8740.00</t>
+  </si>
+  <si>
+    <t>930.00</t>
+  </si>
+  <si>
+    <t>6100.00</t>
+  </si>
+  <si>
+    <t>42195.00</t>
+  </si>
+  <si>
+    <t>149790.00</t>
+  </si>
+  <si>
+    <t>11450.00</t>
+  </si>
+  <si>
+    <t>212270.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>418000.00</t>
+  </si>
+  <si>
+    <t>12293.60</t>
+  </si>
+  <si>
+    <t>1820.00</t>
+  </si>
+  <si>
+    <t>3540.00</t>
+  </si>
+  <si>
+    <t>1695.00</t>
+  </si>
+  <si>
+    <t>11820.00</t>
+  </si>
+  <si>
+    <t>1170.00</t>
+  </si>
+  <si>
+    <t>7988.76</t>
+  </si>
+  <si>
+    <t>331800.00</t>
+  </si>
+  <si>
+    <t>532946.30</t>
+  </si>
+  <si>
+    <t>79412.00</t>
+  </si>
+  <si>
+    <t>259359.57</t>
+  </si>
+  <si>
+    <t>19535.92</t>
+  </si>
+  <si>
+    <t>64418.00</t>
+  </si>
+  <si>
+    <t>3019.00</t>
+  </si>
+  <si>
+    <t>31920.00</t>
+  </si>
+  <si>
+    <t>88008.83</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>30981.39</t>
+  </si>
+  <si>
+    <t>35561.54</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>51.10</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>985.70</t>
+  </si>
+  <si>
+    <t>37782.27</t>
+  </si>
+  <si>
+    <t>3892.00</t>
+  </si>
+  <si>
+    <t>102.35</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>4320.00</t>
+  </si>
+  <si>
+    <t>1490.16</t>
+  </si>
+  <si>
+    <t>279000.00</t>
+  </si>
+  <si>
+    <t>1003.60</t>
+  </si>
+  <si>
+    <t>17775.56</t>
+  </si>
+  <si>
+    <t>37900.00</t>
+  </si>
+  <si>
+    <t>31419.03</t>
+  </si>
+  <si>
+    <t>996.00</t>
+  </si>
+  <si>
+    <t>446.20</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>9437.15</t>
+  </si>
+  <si>
+    <t>13782.28</t>
+  </si>
+  <si>
+    <t>6596.00</t>
+  </si>
+  <si>
+    <t>14388.68</t>
+  </si>
+  <si>
+    <t>3522.62</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>6497.20</t>
+  </si>
+  <si>
+    <t>47003.40</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>23288.68</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>1219.00</t>
+  </si>
+  <si>
+    <t>5180.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>6395.23</t>
+  </si>
+  <si>
+    <t>4267.50</t>
+  </si>
+  <si>
+    <t>5639.50</t>
+  </si>
+  <si>
+    <t>2244.60</t>
+  </si>
+  <si>
+    <t>26220.56</t>
+  </si>
+  <si>
+    <t>89400.00</t>
+  </si>
+  <si>
+    <t>82175.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>24800.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>1964.82</t>
+  </si>
+  <si>
+    <t>23268.65</t>
+  </si>
+  <si>
+    <t>599.50</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>171.78</t>
+  </si>
+  <si>
+    <t>22200.00</t>
+  </si>
+  <si>
+    <t>1652.00</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>835.20</t>
+  </si>
+  <si>
+    <t>2950.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>24596.00</t>
+  </si>
+  <si>
+    <t>3250.00</t>
+  </si>
+  <si>
+    <t>1020.00</t>
+  </si>
+  <si>
+    <t>518.00</t>
+  </si>
+  <si>
+    <t>2010.00</t>
+  </si>
+  <si>
+    <t>1130.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>17875.10</t>
+  </si>
+  <si>
+    <t>3473.00</t>
+  </si>
+  <si>
+    <t>2514.38</t>
+  </si>
+  <si>
+    <t>600235.87</t>
+  </si>
+  <si>
+    <t>79840.55</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>85.21</t>
+  </si>
+  <si>
+    <t>30007.34</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>521.00</t>
+  </si>
+  <si>
+    <t>5235.52</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>7976.40</t>
+  </si>
+  <si>
+    <t>4575.00</t>
+  </si>
+  <si>
+    <t>4524.00</t>
+  </si>
+  <si>
+    <t>190.30</t>
+  </si>
+  <si>
+    <t>6950.00</t>
+  </si>
+  <si>
+    <t>2053.00</t>
+  </si>
+  <si>
+    <t>14673.00</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>545.25</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>2370.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>20985.86</t>
+  </si>
+  <si>
+    <t>2086.00</t>
+  </si>
+  <si>
+    <t>1986.00</t>
+  </si>
+  <si>
+    <t>389.40</t>
+  </si>
+  <si>
+    <t>7845.00</t>
+  </si>
+  <si>
+    <t>16503.96</t>
+  </si>
+  <si>
+    <t>1904.70</t>
+  </si>
+  <si>
+    <t>352.71</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>18400.00</t>
+  </si>
+  <si>
+    <t>45274.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>6440.00</t>
+  </si>
+  <si>
+    <t>77584.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>2780.00</t>
+  </si>
+  <si>
+    <t>2090.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>649.00</t>
+  </si>
+  <si>
+    <t>46631.40</t>
+  </si>
+  <si>
+    <t>391.05</t>
+  </si>
+  <si>
+    <t>8371.00</t>
+  </si>
+  <si>
+    <t>18492.10</t>
+  </si>
+  <si>
+    <t>22616.00</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>12700.00</t>
+  </si>
+  <si>
+    <t>3750.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>3072.27</t>
+  </si>
+  <si>
+    <t>381.86</t>
+  </si>
+  <si>
+    <t>6084.00</t>
+  </si>
+  <si>
+    <t>7526.50</t>
+  </si>
+  <si>
+    <t>3901.00</t>
+  </si>
+  <si>
+    <t>23800.00</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>3815.00</t>
+  </si>
+  <si>
+    <t>32207.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>9504.00</t>
+  </si>
+  <si>
+    <t>1827.82</t>
+  </si>
+  <si>
+    <t>10140.00</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>28430.00</t>
+  </si>
+  <si>
+    <t>3850.00</t>
+  </si>
+  <si>
+    <t>11685.06</t>
+  </si>
+  <si>
+    <t>18580.00</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>7091.14</t>
+  </si>
+  <si>
+    <t>234.84</t>
+  </si>
+  <si>
+    <t>82099.12</t>
+  </si>
+  <si>
+    <t>880.00</t>
+  </si>
+  <si>
+    <t>15442.12</t>
+  </si>
+  <si>
+    <t>2960.00</t>
+  </si>
+  <si>
+    <t>12138.90</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>14820.00</t>
+  </si>
+  <si>
+    <t>4128.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>724134.63</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>3249277.28</t>
+  </si>
+  <si>
+    <t>21600.00</t>
+  </si>
+  <si>
+    <t>2390.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>2128000.00</t>
+  </si>
+  <si>
+    <t>17265025.54</t>
+  </si>
+  <si>
+    <t>135500.00</t>
+  </si>
+  <si>
+    <t>144500.00</t>
+  </si>
+  <si>
+    <t>168500.00</t>
+  </si>
+  <si>
+    <t>239000.00</t>
+  </si>
+  <si>
+    <t>242450.00</t>
+  </si>
+  <si>
+    <t>347000.00</t>
+  </si>
+  <si>
+    <t>342500.00</t>
+  </si>
+  <si>
+    <t>244000.00</t>
+  </si>
+  <si>
+    <t>140250.00</t>
+  </si>
+  <si>
+    <t>633501.92</t>
+  </si>
+  <si>
+    <t>397800.00</t>
+  </si>
+  <si>
+    <t>15200.00</t>
+  </si>
+  <si>
+    <t>14755270.22</t>
+  </si>
+  <si>
+    <t>415000.00</t>
+  </si>
+  <si>
+    <t>16093103.65</t>
+  </si>
+  <si>
+    <t>6939.83</t>
+  </si>
+  <si>
+    <t>3320.24</t>
+  </si>
+  <si>
+    <t>9156.00</t>
+  </si>
+  <si>
+    <t>23870.00</t>
+  </si>
+  <si>
+    <t>15300.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>44400.00</t>
+  </si>
+  <si>
+    <t>12980.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>47301.00</t>
+  </si>
+  <si>
+    <t>6362.00</t>
   </si>
 </sst>
 </file>
